--- a/Code/Results/Cases/Case_5_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_141/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.79482344608885</v>
+        <v>11.04585075083376</v>
       </c>
       <c r="C2">
-        <v>10.27263523451592</v>
+        <v>7.360301762513083</v>
       </c>
       <c r="D2">
-        <v>4.523823634939647</v>
+        <v>6.375954411398858</v>
       </c>
       <c r="E2">
-        <v>13.25821775842996</v>
+        <v>11.22302240966283</v>
       </c>
       <c r="F2">
-        <v>28.92881957067173</v>
+        <v>33.16469232162403</v>
       </c>
       <c r="I2">
-        <v>19.70217170229547</v>
+        <v>26.03093852400587</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.00568875635874</v>
+        <v>11.69856910908127</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.30025052709027</v>
+        <v>15.07257873823612</v>
       </c>
       <c r="N2">
-        <v>14.11608435677544</v>
+        <v>20.84667234438739</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.83283617199945</v>
+        <v>10.80082906769146</v>
       </c>
       <c r="C3">
-        <v>9.537897192633487</v>
+        <v>7.1337695453687</v>
       </c>
       <c r="D3">
-        <v>4.571458505141063</v>
+        <v>6.380980532588324</v>
       </c>
       <c r="E3">
-        <v>12.43101709964557</v>
+        <v>11.00936252128347</v>
       </c>
       <c r="F3">
-        <v>27.96999218935707</v>
+        <v>33.03285283925451</v>
       </c>
       <c r="I3">
-        <v>19.42102906278537</v>
+        <v>26.03275416418846</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.11763567635772</v>
+        <v>11.52957008164124</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.24826581567347</v>
+        <v>14.91521557112774</v>
       </c>
       <c r="N3">
-        <v>14.27369409770685</v>
+        <v>20.89536727138223</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.20987918022278</v>
+        <v>10.6508510078446</v>
       </c>
       <c r="C4">
-        <v>9.063664052623505</v>
+        <v>6.99337644467318</v>
       </c>
       <c r="D4">
-        <v>4.600539130585364</v>
+        <v>6.384089450744963</v>
       </c>
       <c r="E4">
-        <v>11.90747422161945</v>
+        <v>10.87981425310023</v>
       </c>
       <c r="F4">
-        <v>27.39053610213355</v>
+        <v>32.95988283099728</v>
       </c>
       <c r="I4">
-        <v>19.26179018881196</v>
+        <v>26.03889924467055</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.5432274879763</v>
+        <v>11.42787674318543</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.56913924294248</v>
+        <v>14.82201611513312</v>
       </c>
       <c r="N4">
-        <v>14.37505090525813</v>
+        <v>20.92715163685552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.94781448224332</v>
+        <v>10.58994961172879</v>
       </c>
       <c r="C5">
-        <v>8.864533536134122</v>
+        <v>6.93593923003781</v>
       </c>
       <c r="D5">
-        <v>4.612363496277275</v>
+        <v>6.385362302922467</v>
       </c>
       <c r="E5">
-        <v>11.69032771109792</v>
+        <v>10.82751168497949</v>
       </c>
       <c r="F5">
-        <v>27.1569482713964</v>
+        <v>32.93217201055971</v>
       </c>
       <c r="I5">
-        <v>19.20018387922048</v>
+        <v>26.04266711946303</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.30175082916523</v>
+        <v>11.38701150192759</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.28394211725055</v>
+        <v>14.7849382198413</v>
       </c>
       <c r="N5">
-        <v>14.41747935473651</v>
+        <v>20.94057831919072</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.90380088753443</v>
+        <v>10.57985294228748</v>
       </c>
       <c r="C6">
-        <v>8.831111265272391</v>
+        <v>6.926391260935576</v>
       </c>
       <c r="D6">
-        <v>4.614325782433367</v>
+        <v>6.385574023689678</v>
       </c>
       <c r="E6">
-        <v>11.6540461556031</v>
+        <v>10.81885869001642</v>
       </c>
       <c r="F6">
-        <v>27.11832144157058</v>
+        <v>32.92769344303233</v>
       </c>
       <c r="I6">
-        <v>19.1901501367248</v>
+        <v>26.04336905068523</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.26120479412414</v>
+        <v>11.38026219553656</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.23607242275626</v>
+        <v>14.77883708267225</v>
       </c>
       <c r="N6">
-        <v>14.42459174910347</v>
+        <v>20.94283646129556</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.20637821406157</v>
+        <v>10.65002866439168</v>
       </c>
       <c r="C7">
-        <v>9.061002388586436</v>
+        <v>6.992602602544991</v>
       </c>
       <c r="D7">
-        <v>4.600698684122388</v>
+        <v>6.384106592574411</v>
       </c>
       <c r="E7">
-        <v>11.90456087505244</v>
+        <v>10.87910679910263</v>
       </c>
       <c r="F7">
-        <v>27.38737525579747</v>
+        <v>32.95950089161918</v>
       </c>
       <c r="I7">
-        <v>19.26094615464923</v>
+        <v>26.03894494494335</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.54000090745835</v>
+        <v>11.42732321847626</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.56532730285746</v>
+        <v>14.82151236614238</v>
       </c>
       <c r="N7">
-        <v>14.37561859042653</v>
+        <v>20.92733079318954</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.46978081481279</v>
+        <v>10.96132898094359</v>
       </c>
       <c r="C8">
-        <v>10.02404949326571</v>
+        <v>7.282522458805022</v>
       </c>
       <c r="D8">
-        <v>4.540292783681001</v>
+        <v>6.377682791312762</v>
       </c>
       <c r="E8">
-        <v>12.97631007465188</v>
+        <v>11.14905838544888</v>
       </c>
       <c r="F8">
-        <v>28.59641623141166</v>
+        <v>33.11758968645442</v>
       </c>
       <c r="I8">
-        <v>19.60240875100807</v>
+        <v>26.03051996356058</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.70549032152112</v>
+        <v>11.63990096958499</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.94435597806732</v>
+        <v>15.01763489671001</v>
       </c>
       <c r="N8">
-        <v>14.16945889997166</v>
+        <v>20.86307112705745</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69506364002536</v>
+        <v>11.57128493093085</v>
       </c>
       <c r="C9">
-        <v>11.73266278664525</v>
+        <v>7.836600268300938</v>
       </c>
       <c r="D9">
-        <v>4.419729186871697</v>
+        <v>6.365257980602211</v>
       </c>
       <c r="E9">
-        <v>15.17858996162508</v>
+        <v>11.68807213035444</v>
       </c>
       <c r="F9">
-        <v>31.03250929926945</v>
+        <v>33.4899879482679</v>
       </c>
       <c r="I9">
-        <v>20.38165237502631</v>
+        <v>26.05394463608827</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.76338527731297</v>
+        <v>12.07078432531327</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.39003117230748</v>
+        <v>15.42748970908397</v>
       </c>
       <c r="N9">
-        <v>13.80300994856605</v>
+        <v>20.75201045912923</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.18204165745606</v>
+        <v>12.01373217978528</v>
       </c>
       <c r="C10">
-        <v>12.88346324193267</v>
+        <v>8.229830199128971</v>
       </c>
       <c r="D10">
-        <v>4.328673428739291</v>
+        <v>6.356221315688016</v>
       </c>
       <c r="E10">
-        <v>16.70209440222385</v>
+        <v>12.08552788236742</v>
       </c>
       <c r="F10">
-        <v>32.85297150014756</v>
+        <v>33.80020555910999</v>
       </c>
       <c r="I10">
-        <v>21.02565397111058</v>
+        <v>26.09552222169447</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.14196241169586</v>
+        <v>12.39263563988688</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.03662450236178</v>
+        <v>15.74137279413274</v>
       </c>
       <c r="N10">
-        <v>13.55922910999994</v>
+        <v>20.67951803343176</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.82775998894627</v>
+        <v>12.21272592008287</v>
       </c>
       <c r="C11">
-        <v>13.38556922089223</v>
+        <v>8.40479135985982</v>
       </c>
       <c r="D11">
-        <v>4.286414199913105</v>
+        <v>6.352127407666846</v>
       </c>
       <c r="E11">
-        <v>17.36933080416396</v>
+        <v>12.26575487718634</v>
       </c>
       <c r="F11">
-        <v>33.68661603307528</v>
+        <v>33.94892998160833</v>
       </c>
       <c r="I11">
-        <v>21.33517464059416</v>
+        <v>26.11971907741272</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.74146593999296</v>
+        <v>12.53951656960197</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.75489572734518</v>
+        <v>15.88635823635129</v>
       </c>
       <c r="N11">
-        <v>13.45450661586878</v>
+        <v>20.64851411875031</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.0679819301145</v>
+        <v>12.2876713526541</v>
       </c>
       <c r="C12">
-        <v>13.57274262625402</v>
+        <v>8.470413656892427</v>
       </c>
       <c r="D12">
-        <v>4.270263540378783</v>
+        <v>6.350579371116269</v>
       </c>
       <c r="E12">
-        <v>17.61846605377869</v>
+        <v>12.33384801025665</v>
       </c>
       <c r="F12">
-        <v>34.00304269012066</v>
+        <v>34.00630835720654</v>
       </c>
       <c r="I12">
-        <v>21.45485288187393</v>
+        <v>26.12963952796254</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.96462891883916</v>
+        <v>12.59514833144275</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.0226270209554</v>
+        <v>15.94152749151847</v>
       </c>
       <c r="N12">
-        <v>13.41580500584915</v>
+        <v>20.63705743884101</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.01643497538959</v>
+        <v>12.27154995313976</v>
       </c>
       <c r="C13">
-        <v>13.5325613452993</v>
+        <v>8.456309822895031</v>
       </c>
       <c r="D13">
-        <v>4.273748927406844</v>
+        <v>6.350912672058931</v>
       </c>
       <c r="E13">
-        <v>17.56496438532085</v>
+        <v>12.3191909330003</v>
       </c>
       <c r="F13">
-        <v>33.93486173811183</v>
+        <v>33.99390432991146</v>
       </c>
       <c r="I13">
-        <v>21.42896670470254</v>
+        <v>26.12746932547475</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.91673632885312</v>
+        <v>12.58316742032952</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.96515311488895</v>
+        <v>15.92963474674585</v>
       </c>
       <c r="N13">
-        <v>13.42409646523472</v>
+        <v>20.6395122149423</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.84760860675973</v>
+        <v>12.21890037476039</v>
       </c>
       <c r="C14">
-        <v>13.40102678629946</v>
+        <v>8.410203169928394</v>
       </c>
       <c r="D14">
-        <v>4.285088610202822</v>
+        <v>6.352000006038497</v>
       </c>
       <c r="E14">
-        <v>17.38989701912669</v>
+        <v>12.27136044431339</v>
       </c>
       <c r="F14">
-        <v>33.71263384989695</v>
+        <v>33.95362949928131</v>
       </c>
       <c r="I14">
-        <v>21.34497061434474</v>
+        <v>26.12052006899682</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.75990227548869</v>
+        <v>12.54409352177284</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.77700658131717</v>
+        <v>15.89089198920226</v>
       </c>
       <c r="N14">
-        <v>13.45130306251288</v>
+        <v>20.64756588190286</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.74364160440902</v>
+        <v>12.18659537043933</v>
       </c>
       <c r="C15">
-        <v>13.32007573431348</v>
+        <v>8.381877352659194</v>
       </c>
       <c r="D15">
-        <v>4.292014349950509</v>
+        <v>6.352666315120602</v>
       </c>
       <c r="E15">
-        <v>17.28220877381486</v>
+        <v>12.24204064014898</v>
       </c>
       <c r="F15">
-        <v>33.5766090610441</v>
+        <v>33.92909696109533</v>
       </c>
       <c r="I15">
-        <v>21.29384494133615</v>
+        <v>26.11636204184821</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.66333832120872</v>
+        <v>12.52015943706404</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.66121138909447</v>
+        <v>15.86719415273357</v>
       </c>
       <c r="N15">
-        <v>13.46809434965105</v>
+        <v>20.65253595117035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.1392343649967</v>
+        <v>12.00067453443105</v>
       </c>
       <c r="C16">
-        <v>12.85022833104683</v>
+        <v>8.218311214408059</v>
       </c>
       <c r="D16">
-        <v>4.331416024653692</v>
+        <v>6.356489185915043</v>
       </c>
       <c r="E16">
-        <v>16.65798441347966</v>
+        <v>12.07373178104735</v>
       </c>
       <c r="F16">
-        <v>32.79859648421476</v>
+        <v>33.79063624652464</v>
       </c>
       <c r="I16">
-        <v>21.00576665855275</v>
+        <v>26.09404704614782</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>16.10223734535569</v>
+        <v>12.38304121657603</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.98907812678382</v>
+        <v>15.73193764151432</v>
       </c>
       <c r="N16">
-        <v>13.56620268572854</v>
+        <v>20.6815839252436</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.76066523369057</v>
+        <v>11.88597494150126</v>
       </c>
       <c r="C17">
-        <v>12.5565891507402</v>
+        <v>8.116913904412762</v>
       </c>
       <c r="D17">
-        <v>4.355354449233053</v>
+        <v>6.358838586992823</v>
       </c>
       <c r="E17">
-        <v>16.26855347089018</v>
+        <v>11.97027961256535</v>
       </c>
       <c r="F17">
-        <v>32.32267238247463</v>
+        <v>33.70761941155265</v>
       </c>
       <c r="I17">
-        <v>20.83334184616428</v>
+        <v>26.0817093597056</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.75102550622548</v>
+        <v>12.29900324166696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.56897561296691</v>
+        <v>15.64948984815147</v>
       </c>
       <c r="N17">
-        <v>13.62801471060545</v>
+        <v>20.69990936259456</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.54002356269705</v>
+        <v>11.81979292431543</v>
       </c>
       <c r="C18">
-        <v>12.38567407197364</v>
+        <v>8.058227384880032</v>
       </c>
       <c r="D18">
-        <v>4.369046181679066</v>
+        <v>6.360191504110616</v>
       </c>
       <c r="E18">
-        <v>16.04212165460154</v>
+        <v>11.91072638856341</v>
       </c>
       <c r="F18">
-        <v>32.04945188925421</v>
+        <v>33.66058829691498</v>
       </c>
       <c r="I18">
-        <v>20.73572082502602</v>
+        <v>26.07511047416123</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.54641072778246</v>
+        <v>12.25071426368463</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.3244367311903</v>
+        <v>15.60227797015983</v>
       </c>
       <c r="N18">
-        <v>13.66414398017056</v>
+        <v>20.71063539514303</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.46481673614356</v>
+        <v>11.79735136555719</v>
       </c>
       <c r="C19">
-        <v>12.32745465307777</v>
+        <v>8.038296549755765</v>
       </c>
       <c r="D19">
-        <v>4.373669532961931</v>
+        <v>6.360649860022829</v>
       </c>
       <c r="E19">
-        <v>15.96503124285008</v>
+        <v>11.89055630057124</v>
       </c>
       <c r="F19">
-        <v>31.95703540653005</v>
+        <v>33.64478868140622</v>
       </c>
       <c r="I19">
-        <v>20.70293222962519</v>
+        <v>26.07296169058817</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.47668056215421</v>
+        <v>12.23437433475747</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.24113607168893</v>
+        <v>15.58633040763115</v>
       </c>
       <c r="N19">
-        <v>13.67647389939017</v>
+        <v>20.71429894206964</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.80126373484886</v>
+        <v>11.89820723574975</v>
       </c>
       <c r="C20">
-        <v>12.58805597794926</v>
+        <v>8.127746159329737</v>
       </c>
       <c r="D20">
-        <v>4.352814324485485</v>
+        <v>6.358588324650218</v>
       </c>
       <c r="E20">
-        <v>16.3102604981079</v>
+        <v>11.98129800695613</v>
       </c>
       <c r="F20">
-        <v>32.37328215641202</v>
+        <v>33.71638262682157</v>
       </c>
       <c r="I20">
-        <v>20.85153540309501</v>
+        <v>26.08297125865576</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.78868161728277</v>
+        <v>12.30794473033943</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.61399597902769</v>
+        <v>15.65824519176667</v>
       </c>
       <c r="N20">
-        <v>13.62137458585229</v>
+        <v>20.69793936605092</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.89731264269835</v>
+        <v>12.23437656082073</v>
       </c>
       <c r="C21">
-        <v>13.43974113457404</v>
+        <v>8.423763462057936</v>
       </c>
       <c r="D21">
-        <v>4.281762121815738</v>
+        <v>6.3516805705132</v>
       </c>
       <c r="E21">
-        <v>17.44141290439997</v>
+        <v>12.28541417822948</v>
       </c>
       <c r="F21">
-        <v>33.77788753636953</v>
+        <v>33.96543071460164</v>
       </c>
       <c r="I21">
-        <v>21.3695745365594</v>
+        <v>26.12254069194118</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.80607191939523</v>
+        <v>12.55557061151372</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.83238408782119</v>
+        <v>15.9022648414732</v>
       </c>
       <c r="N21">
-        <v>13.44328533745625</v>
+        <v>20.6451926208969</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.58865656740573</v>
+        <v>12.45166364124569</v>
       </c>
       <c r="C22">
-        <v>13.97915549623251</v>
+        <v>8.613519207751539</v>
       </c>
       <c r="D22">
-        <v>4.234447703349234</v>
+        <v>6.347178906249209</v>
       </c>
       <c r="E22">
-        <v>18.1601920248329</v>
+        <v>12.48323786679785</v>
       </c>
       <c r="F22">
-        <v>34.70022471964687</v>
+        <v>34.13435745252306</v>
       </c>
       <c r="I22">
-        <v>21.72258488095102</v>
+        <v>26.15281621964338</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.44858060530958</v>
+        <v>12.71744844515398</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.60391332321685</v>
+        <v>16.06327574614072</v>
       </c>
       <c r="N22">
-        <v>13.33249606093947</v>
+        <v>20.61237400298446</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.2219177979872</v>
+        <v>12.33594033661317</v>
       </c>
       <c r="C23">
-        <v>13.69279420540867</v>
+        <v>8.512602981348014</v>
       </c>
       <c r="D23">
-        <v>4.259790510564224</v>
+        <v>6.349580408270064</v>
       </c>
       <c r="E23">
-        <v>17.77837716733723</v>
+        <v>12.37776391638437</v>
       </c>
       <c r="F23">
-        <v>34.20756172707413</v>
+        <v>34.04364620360487</v>
       </c>
       <c r="I23">
-        <v>21.53282367667414</v>
+        <v>26.13625451100997</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.10767175409673</v>
+        <v>12.63106571894828</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.19434116227632</v>
+        <v>15.97721758533531</v>
       </c>
       <c r="N23">
-        <v>13.39108898551383</v>
+        <v>20.6297385049454</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.78291849709512</v>
+        <v>11.89267775581724</v>
       </c>
       <c r="C24">
-        <v>12.57383636865409</v>
+        <v>8.122850112210982</v>
       </c>
       <c r="D24">
-        <v>4.353962933323166</v>
+        <v>6.358701461303365</v>
       </c>
       <c r="E24">
-        <v>16.29141268460911</v>
+        <v>11.97631682584284</v>
       </c>
       <c r="F24">
-        <v>32.35040024418914</v>
+        <v>33.7124186053504</v>
       </c>
       <c r="I24">
-        <v>20.84330540451668</v>
+        <v>26.08239921441778</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.77166570303446</v>
+        <v>12.30390219931338</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.59365167888721</v>
+        <v>15.65428631009755</v>
       </c>
       <c r="N24">
-        <v>13.62437474499193</v>
+        <v>20.69882940802636</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.1194874056166</v>
+        <v>11.40690118022264</v>
       </c>
       <c r="C25">
-        <v>11.28919331978997</v>
+        <v>7.688803054119468</v>
       </c>
       <c r="D25">
-        <v>4.45268690137665</v>
+        <v>6.368602145548027</v>
       </c>
       <c r="E25">
-        <v>14.59355952178056</v>
+        <v>11.54168738711924</v>
       </c>
       <c r="F25">
-        <v>30.3675598360348</v>
+        <v>33.38270164401219</v>
       </c>
       <c r="I25">
-        <v>20.15862607149329</v>
+        <v>26.04332712664073</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.23050573482937</v>
+        <v>11.95305621548011</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.75536954066727</v>
+        <v>15.31417686407625</v>
       </c>
       <c r="N25">
-        <v>13.89787062939049</v>
+        <v>20.78045583283098</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_141/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_141/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.04585075083376</v>
+        <v>13.79482344608889</v>
       </c>
       <c r="C2">
-        <v>7.360301762513083</v>
+        <v>10.27263523451592</v>
       </c>
       <c r="D2">
-        <v>6.375954411398858</v>
+        <v>4.52382363493971</v>
       </c>
       <c r="E2">
-        <v>11.22302240966283</v>
+        <v>13.25821775842994</v>
       </c>
       <c r="F2">
-        <v>33.16469232162403</v>
+        <v>28.92881957067172</v>
       </c>
       <c r="I2">
-        <v>26.03093852400587</v>
+        <v>19.70217170229546</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.69856910908127</v>
+        <v>13.00568875635877</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.07257873823612</v>
+        <v>15.30025052709028</v>
       </c>
       <c r="N2">
-        <v>20.84667234438739</v>
+        <v>14.11608435677537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +462,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80082906769146</v>
+        <v>12.83283617199949</v>
       </c>
       <c r="C3">
-        <v>7.1337695453687</v>
+        <v>9.537897192633411</v>
       </c>
       <c r="D3">
-        <v>6.380980532588324</v>
+        <v>4.571458505141194</v>
       </c>
       <c r="E3">
-        <v>11.00936252128347</v>
+        <v>12.43101709964557</v>
       </c>
       <c r="F3">
-        <v>33.03285283925451</v>
+        <v>27.96999218935714</v>
       </c>
       <c r="I3">
-        <v>26.03275416418846</v>
+        <v>19.42102906278539</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.52957008164124</v>
+        <v>12.11763567635771</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.91521557112774</v>
+        <v>14.24826581567349</v>
       </c>
       <c r="N3">
-        <v>20.89536727138223</v>
+        <v>14.27369409770687</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +503,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.6508510078446</v>
+        <v>12.20987918022271</v>
       </c>
       <c r="C4">
-        <v>6.99337644467318</v>
+        <v>9.063664052623407</v>
       </c>
       <c r="D4">
-        <v>6.384089450744963</v>
+        <v>4.600539130585228</v>
       </c>
       <c r="E4">
-        <v>10.87981425310023</v>
+        <v>11.90747422161943</v>
       </c>
       <c r="F4">
-        <v>32.95988283099728</v>
+        <v>27.39053610213373</v>
       </c>
       <c r="I4">
-        <v>26.03889924467055</v>
+        <v>19.26179018881207</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.42787674318543</v>
+        <v>11.54322748797623</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.82201611513312</v>
+        <v>13.56913924294244</v>
       </c>
       <c r="N4">
-        <v>20.92715163685552</v>
+        <v>14.37505090525817</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +544,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.58994961172879</v>
+        <v>11.94781448224337</v>
       </c>
       <c r="C5">
-        <v>6.93593923003781</v>
+        <v>8.864533536134081</v>
       </c>
       <c r="D5">
-        <v>6.385362302922467</v>
+        <v>4.612363496277339</v>
       </c>
       <c r="E5">
-        <v>10.82751168497949</v>
+        <v>11.69032771109797</v>
       </c>
       <c r="F5">
-        <v>32.93217201055971</v>
+        <v>27.15694827139628</v>
       </c>
       <c r="I5">
-        <v>26.04266711946303</v>
+        <v>19.20018387922042</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.38701150192759</v>
+        <v>11.30175082916526</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.7849382198413</v>
+        <v>13.28394211725058</v>
       </c>
       <c r="N5">
-        <v>20.94057831919072</v>
+        <v>14.41747935473645</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +585,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.57985294228748</v>
+        <v>11.90380088753442</v>
       </c>
       <c r="C6">
-        <v>6.926391260935576</v>
+        <v>8.831111265272453</v>
       </c>
       <c r="D6">
-        <v>6.385574023689678</v>
+        <v>4.614325782433366</v>
       </c>
       <c r="E6">
-        <v>10.81885869001642</v>
+        <v>11.65404615560313</v>
       </c>
       <c r="F6">
-        <v>32.92769344303233</v>
+        <v>27.11832144157062</v>
       </c>
       <c r="I6">
-        <v>26.04336905068523</v>
+        <v>19.19015013672488</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.38026219553656</v>
+        <v>11.2612047941241</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.77883708267225</v>
+        <v>13.23607242275621</v>
       </c>
       <c r="N6">
-        <v>20.94283646129556</v>
+        <v>14.42459174910347</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +626,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.65002866439168</v>
+        <v>12.20637821406162</v>
       </c>
       <c r="C7">
-        <v>6.992602602544991</v>
+        <v>9.061002388586413</v>
       </c>
       <c r="D7">
-        <v>6.384106592574411</v>
+        <v>4.600698684122522</v>
       </c>
       <c r="E7">
-        <v>10.87910679910263</v>
+        <v>11.90456087505243</v>
       </c>
       <c r="F7">
-        <v>32.95950089161918</v>
+        <v>27.38737525579749</v>
       </c>
       <c r="I7">
-        <v>26.03894494494335</v>
+        <v>19.26094615464926</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.42732321847626</v>
+        <v>11.5400009074584</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.82151236614238</v>
+        <v>13.5653273028575</v>
       </c>
       <c r="N7">
-        <v>20.92733079318954</v>
+        <v>14.37561859042658</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +667,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.96132898094359</v>
+        <v>13.46978081481282</v>
       </c>
       <c r="C8">
-        <v>7.282522458805022</v>
+        <v>10.02404949326568</v>
       </c>
       <c r="D8">
-        <v>6.377682791312762</v>
+        <v>4.540292783680929</v>
       </c>
       <c r="E8">
-        <v>11.14905838544888</v>
+        <v>12.97631007465188</v>
       </c>
       <c r="F8">
-        <v>33.11758968645442</v>
+        <v>28.59641623141178</v>
       </c>
       <c r="I8">
-        <v>26.03051996356058</v>
+        <v>19.6024087510082</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.63990096958499</v>
+        <v>12.70549032152113</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.01763489671001</v>
+        <v>14.94435597806726</v>
       </c>
       <c r="N8">
-        <v>20.86307112705745</v>
+        <v>14.16945889997178</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +708,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.57128493093085</v>
+        <v>15.69506364002528</v>
       </c>
       <c r="C9">
-        <v>7.836600268300938</v>
+        <v>11.73266278664539</v>
       </c>
       <c r="D9">
-        <v>6.365257980602211</v>
+        <v>4.419729186871764</v>
       </c>
       <c r="E9">
-        <v>11.68807213035444</v>
+        <v>15.17858996162511</v>
       </c>
       <c r="F9">
-        <v>33.4899879482679</v>
+        <v>31.03250929926944</v>
       </c>
       <c r="I9">
-        <v>26.05394463608827</v>
+        <v>20.38165237502641</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.07078432531327</v>
+        <v>14.76338527731296</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.42748970908397</v>
+        <v>17.39003117230748</v>
       </c>
       <c r="N9">
-        <v>20.75201045912923</v>
+        <v>13.80300994856605</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.01373217978528</v>
+        <v>17.18204165745604</v>
       </c>
       <c r="C10">
-        <v>8.229830199128971</v>
+        <v>12.88346324193264</v>
       </c>
       <c r="D10">
-        <v>6.356221315688016</v>
+        <v>4.328673428739291</v>
       </c>
       <c r="E10">
-        <v>12.08552788236742</v>
+        <v>16.70209440222384</v>
       </c>
       <c r="F10">
-        <v>33.80020555910999</v>
+        <v>32.8529715001476</v>
       </c>
       <c r="I10">
-        <v>26.09552222169447</v>
+        <v>21.02565397111062</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.39263563988688</v>
+        <v>16.14196241169583</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.74137279413274</v>
+        <v>19.03662450236176</v>
       </c>
       <c r="N10">
-        <v>20.67951803343176</v>
+        <v>13.55922910999995</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +790,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.21272592008287</v>
+        <v>17.82775998894638</v>
       </c>
       <c r="C11">
-        <v>8.40479135985982</v>
+        <v>13.38556922089242</v>
       </c>
       <c r="D11">
-        <v>6.352127407666846</v>
+        <v>4.286414199913101</v>
       </c>
       <c r="E11">
-        <v>12.26575487718634</v>
+        <v>17.36933080416405</v>
       </c>
       <c r="F11">
-        <v>33.94892998160833</v>
+        <v>33.68661603307515</v>
       </c>
       <c r="I11">
-        <v>26.11971907741272</v>
+        <v>21.33517464059398</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.53951656960197</v>
+        <v>16.7414659399931</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.88635823635129</v>
+        <v>19.75489572734534</v>
       </c>
       <c r="N11">
-        <v>20.64851411875031</v>
+        <v>13.45450661586863</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +831,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.2876713526541</v>
+        <v>18.06798193011453</v>
       </c>
       <c r="C12">
-        <v>8.470413656892427</v>
+        <v>13.57274262625389</v>
       </c>
       <c r="D12">
-        <v>6.350579371116269</v>
+        <v>4.270263540378918</v>
       </c>
       <c r="E12">
-        <v>12.33384801025665</v>
+        <v>17.61846605377867</v>
       </c>
       <c r="F12">
-        <v>34.00630835720654</v>
+        <v>34.00304269012064</v>
       </c>
       <c r="I12">
-        <v>26.12963952796254</v>
+        <v>21.45485288187392</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.59514833144275</v>
+        <v>16.96462891883912</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.94152749151847</v>
+        <v>20.02262702095536</v>
       </c>
       <c r="N12">
-        <v>20.63705743884101</v>
+        <v>13.41580500584917</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +872,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.27154995313976</v>
+        <v>18.01643497538952</v>
       </c>
       <c r="C13">
-        <v>8.456309822895031</v>
+        <v>13.53256134529934</v>
       </c>
       <c r="D13">
-        <v>6.350912672058931</v>
+        <v>4.27374892740664</v>
       </c>
       <c r="E13">
-        <v>12.3191909330003</v>
+        <v>17.56496438532083</v>
       </c>
       <c r="F13">
-        <v>33.99390432991146</v>
+        <v>33.93486173811181</v>
       </c>
       <c r="I13">
-        <v>26.12746932547475</v>
+        <v>21.42896670470257</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.58316742032952</v>
+        <v>16.91673632885312</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.92963474674585</v>
+        <v>19.96515311488894</v>
       </c>
       <c r="N13">
-        <v>20.6395122149423</v>
+        <v>13.4240964652348</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +913,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.21890037476039</v>
+        <v>17.84760860675972</v>
       </c>
       <c r="C14">
-        <v>8.410203169928394</v>
+        <v>13.40102678629953</v>
       </c>
       <c r="D14">
-        <v>6.352000006038497</v>
+        <v>4.285088610203023</v>
       </c>
       <c r="E14">
-        <v>12.27136044431339</v>
+        <v>17.38989701912671</v>
       </c>
       <c r="F14">
-        <v>33.95362949928131</v>
+        <v>33.71263384989703</v>
       </c>
       <c r="I14">
-        <v>26.12052006899682</v>
+        <v>21.34497061434481</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.54409352177284</v>
+        <v>16.75990227548872</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.89089198920226</v>
+        <v>19.7770065813172</v>
       </c>
       <c r="N14">
-        <v>20.64756588190286</v>
+        <v>13.45130306251293</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.18659537043933</v>
+        <v>17.74364160440898</v>
       </c>
       <c r="C15">
-        <v>8.381877352659194</v>
+        <v>13.32007573431348</v>
       </c>
       <c r="D15">
-        <v>6.352666315120602</v>
+        <v>4.29201434995044</v>
       </c>
       <c r="E15">
-        <v>12.24204064014898</v>
+        <v>17.28220877381486</v>
       </c>
       <c r="F15">
-        <v>33.92909696109533</v>
+        <v>33.57660906104407</v>
       </c>
       <c r="I15">
-        <v>26.11636204184821</v>
+        <v>21.29384494133611</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.52015943706404</v>
+        <v>16.6633383212087</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.86719415273357</v>
+        <v>19.66121138909446</v>
       </c>
       <c r="N15">
-        <v>20.65253595117035</v>
+        <v>13.46809434965101</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +995,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.00067453443105</v>
+        <v>17.13923436499674</v>
       </c>
       <c r="C16">
-        <v>8.218311214408059</v>
+        <v>12.85022833104701</v>
       </c>
       <c r="D16">
-        <v>6.356489185915043</v>
+        <v>4.331416024653422</v>
       </c>
       <c r="E16">
-        <v>12.07373178104735</v>
+        <v>16.65798441347969</v>
       </c>
       <c r="F16">
-        <v>33.79063624652464</v>
+        <v>32.7985964842148</v>
       </c>
       <c r="I16">
-        <v>26.09404704614782</v>
+        <v>21.00576665855274</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.38304121657603</v>
+        <v>16.10223734535578</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.73193764151432</v>
+        <v>18.9890781267839</v>
       </c>
       <c r="N16">
-        <v>20.6815839252436</v>
+        <v>13.56620268572849</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1036,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.88597494150126</v>
+        <v>16.76066523369061</v>
       </c>
       <c r="C17">
-        <v>8.116913904412762</v>
+        <v>12.55658915074006</v>
       </c>
       <c r="D17">
-        <v>6.358838586992823</v>
+        <v>4.355354449232916</v>
       </c>
       <c r="E17">
-        <v>11.97027961256535</v>
+        <v>16.26855347089017</v>
       </c>
       <c r="F17">
-        <v>33.70761941155265</v>
+        <v>32.32267238247466</v>
       </c>
       <c r="I17">
-        <v>26.0817093597056</v>
+        <v>20.83334184616425</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.29900324166696</v>
+        <v>15.75102550622546</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.64948984815147</v>
+        <v>18.5689756129669</v>
       </c>
       <c r="N17">
-        <v>20.69990936259456</v>
+        <v>13.62801471060545</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1077,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.81979292431543</v>
+        <v>16.54002356269707</v>
       </c>
       <c r="C18">
-        <v>8.058227384880032</v>
+        <v>12.38567407197357</v>
       </c>
       <c r="D18">
-        <v>6.360191504110616</v>
+        <v>4.369046181679401</v>
       </c>
       <c r="E18">
-        <v>11.91072638856341</v>
+        <v>16.04212165460156</v>
       </c>
       <c r="F18">
-        <v>33.66058829691498</v>
+        <v>32.04945188925431</v>
       </c>
       <c r="I18">
-        <v>26.07511047416123</v>
+        <v>20.73572082502614</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.25071426368463</v>
+        <v>15.54641072778239</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.60227797015983</v>
+        <v>18.32443673119026</v>
       </c>
       <c r="N18">
-        <v>20.71063539514303</v>
+        <v>13.66414398017061</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1118,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.79735136555719</v>
+        <v>16.46481673614355</v>
       </c>
       <c r="C19">
-        <v>8.038296549755765</v>
+        <v>12.32745465307776</v>
       </c>
       <c r="D19">
-        <v>6.360649860022829</v>
+        <v>4.373669532961928</v>
       </c>
       <c r="E19">
-        <v>11.89055630057124</v>
+        <v>15.96503124285017</v>
       </c>
       <c r="F19">
-        <v>33.64478868140622</v>
+        <v>31.95703540653005</v>
       </c>
       <c r="I19">
-        <v>26.07296169058817</v>
+        <v>20.70293222962523</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.23437433475747</v>
+        <v>15.47668056215421</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.58633040763115</v>
+        <v>18.24113607168898</v>
       </c>
       <c r="N19">
-        <v>20.71429894206964</v>
+        <v>13.67647389939023</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1159,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.89820723574975</v>
+        <v>16.80126373484889</v>
       </c>
       <c r="C20">
-        <v>8.127746159329737</v>
+        <v>12.58805597794928</v>
       </c>
       <c r="D20">
-        <v>6.358588324650218</v>
+        <v>4.352814324485484</v>
       </c>
       <c r="E20">
-        <v>11.98129800695613</v>
+        <v>16.31026049810789</v>
       </c>
       <c r="F20">
-        <v>33.71638262682157</v>
+        <v>32.37328215641207</v>
       </c>
       <c r="I20">
-        <v>26.08297125865576</v>
+        <v>20.85153540309506</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.30794473033943</v>
+        <v>15.7886816172828</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.65824519176667</v>
+        <v>18.61399597902769</v>
       </c>
       <c r="N20">
-        <v>20.69793936605092</v>
+        <v>13.62137458585235</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1200,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.23437656082073</v>
+        <v>17.89731264269832</v>
       </c>
       <c r="C21">
-        <v>8.423763462057936</v>
+        <v>13.43974113457405</v>
       </c>
       <c r="D21">
-        <v>6.3516805705132</v>
+        <v>4.281762121815804</v>
       </c>
       <c r="E21">
-        <v>12.28541417822948</v>
+        <v>17.44141290439994</v>
       </c>
       <c r="F21">
-        <v>33.96543071460164</v>
+        <v>33.77788753636965</v>
       </c>
       <c r="I21">
-        <v>26.12254069194118</v>
+        <v>21.36957453655953</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.55557061151372</v>
+        <v>16.80607191939519</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.9022648414732</v>
+        <v>19.83238408782116</v>
       </c>
       <c r="N21">
-        <v>20.6451926208969</v>
+        <v>13.44328533745639</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.45166364124569</v>
+        <v>18.58865656740577</v>
       </c>
       <c r="C22">
-        <v>8.613519207751539</v>
+        <v>13.97915549623256</v>
       </c>
       <c r="D22">
-        <v>6.347178906249209</v>
+        <v>4.234447703349502</v>
       </c>
       <c r="E22">
-        <v>12.48323786679785</v>
+        <v>18.16019202483292</v>
       </c>
       <c r="F22">
-        <v>34.13435745252306</v>
+        <v>34.70022471964685</v>
       </c>
       <c r="I22">
-        <v>26.15281621964338</v>
+        <v>21.722584880951</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.71744844515398</v>
+        <v>17.44858060530961</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.06327574614072</v>
+        <v>20.60391332321688</v>
       </c>
       <c r="N22">
-        <v>20.61237400298446</v>
+        <v>13.33249606093944</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1282,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.33594033661317</v>
+        <v>18.22191779798718</v>
       </c>
       <c r="C23">
-        <v>8.512602981348014</v>
+        <v>13.69279420540871</v>
       </c>
       <c r="D23">
-        <v>6.349580408270064</v>
+        <v>4.259790510564356</v>
       </c>
       <c r="E23">
-        <v>12.37776391638437</v>
+        <v>17.77837716733725</v>
       </c>
       <c r="F23">
-        <v>34.04364620360487</v>
+        <v>34.20756172707424</v>
       </c>
       <c r="I23">
-        <v>26.13625451100997</v>
+        <v>21.53282367667423</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.63106571894828</v>
+        <v>17.10767175409673</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.97721758533531</v>
+        <v>20.19434116227632</v>
       </c>
       <c r="N23">
-        <v>20.6297385049454</v>
+        <v>13.39108898551389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1323,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.89267775581724</v>
+        <v>16.78291849709515</v>
       </c>
       <c r="C24">
-        <v>8.122850112210982</v>
+        <v>12.57383636865411</v>
       </c>
       <c r="D24">
-        <v>6.358701461303365</v>
+        <v>4.353962933323302</v>
       </c>
       <c r="E24">
-        <v>11.97631682584284</v>
+        <v>16.29141268460916</v>
       </c>
       <c r="F24">
-        <v>33.7124186053504</v>
+        <v>32.35040024418912</v>
       </c>
       <c r="I24">
-        <v>26.08239921441778</v>
+        <v>20.84330540451669</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.30390219931338</v>
+        <v>15.77166570303449</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.65428631009755</v>
+        <v>18.59365167888724</v>
       </c>
       <c r="N24">
-        <v>20.69882940802636</v>
+        <v>13.62437474499193</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.40690118022264</v>
+        <v>15.11948740561666</v>
       </c>
       <c r="C25">
-        <v>7.688803054119468</v>
+        <v>11.28919331978991</v>
       </c>
       <c r="D25">
-        <v>6.368602145548027</v>
+        <v>4.452686901376581</v>
       </c>
       <c r="E25">
-        <v>11.54168738711924</v>
+        <v>14.59355952178059</v>
       </c>
       <c r="F25">
-        <v>33.38270164401219</v>
+        <v>30.36755983603486</v>
       </c>
       <c r="I25">
-        <v>26.04332712664073</v>
+        <v>20.15862607149329</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.95305621548011</v>
+        <v>14.23050573482939</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.31417686407625</v>
+        <v>16.75536954066731</v>
       </c>
       <c r="N25">
-        <v>20.78045583283098</v>
+        <v>13.89787062939051</v>
       </c>
       <c r="O25">
         <v>0</v>
